--- a/public/importDoctors.xlsx
+++ b/public/importDoctors.xlsx
@@ -21,46 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10/05/2023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>example@example.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>example@example.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,35 +45,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主治医师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任药剂师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abcd123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example2@example.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example1@example.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(长度不超过20个字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名(长度不超过20个字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码(长度为10-16位包含大小写字母和数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码(长度不超过11位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱(符合邮箱格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期(格式为yyyy/mm/dd或mm/dd/yyyy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别(只能填写男、女、其他)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主治医师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主任药剂师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abcd123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二医院</t>
+    <t>工作单位(只能填写存在于医院列表中的医院)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位(不超过40个字符)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -469,34 +469,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -504,31 +504,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>12345678910</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>44562</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -536,31 +536,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>23456789110</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>12345678910</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
